--- a/所有组员每周任务/Date0112-2019/PRD2018-G10-学生优先级排序.xlsx
+++ b/所有组员每周任务/Date0112-2019/PRD2018-G10-学生优先级排序.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2501434C-0A39-4E99-8679-1BFDC5C95FB5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D11C7F7-877D-4E18-A7CD-30D9441DCEE8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="55">
   <si>
     <t>用例</t>
   </si>
@@ -274,13 +274,17 @@
     <t>移动端</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>学生浏览启动页</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="184" formatCode="0.0000"/>
+    <numFmt numFmtId="176" formatCode="0.0000"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -438,6 +442,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
@@ -446,18 +462,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -741,80 +745,81 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J47" sqref="A4:J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="7" max="7" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="10" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="10" t="s">
         <v>8</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
       <c r="G3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="7"/>
+      <c r="H3" s="11"/>
       <c r="I3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="7"/>
+      <c r="J3" s="11"/>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="3">
@@ -832,23 +837,24 @@
       <c r="F4" s="5">
         <v>5</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="6">
         <f>F4/202</f>
         <v>2.4752475247524754E-2</v>
       </c>
       <c r="H4" s="5">
         <v>2</v>
       </c>
-      <c r="I4" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="J4" s="10">
+      <c r="I4" s="6">
+        <f>H4/88</f>
+        <v>2.2727272727272728E-2</v>
+      </c>
+      <c r="J4" s="7">
         <f>C4/(G4+I4)</f>
-        <v>0.56059633027522937</v>
+        <v>0.76453649289099523</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="3">
@@ -866,23 +872,24 @@
       <c r="F5" s="5">
         <v>3</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="6">
         <f>F5/202</f>
         <v>1.4851485148514851E-2</v>
       </c>
       <c r="H5" s="5">
         <v>2</v>
       </c>
-      <c r="I5" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="J5" s="10">
+      <c r="I5" s="6">
+        <f>H5/88</f>
+        <v>2.2727272727272728E-2</v>
+      </c>
+      <c r="J5" s="7">
         <f>C5/(G5+I5)</f>
-        <v>0.53052346570397113</v>
+        <v>0.77437365269461078</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="3">
@@ -900,23 +907,24 @@
       <c r="F6" s="5">
         <v>4</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="6">
         <f>F6/202</f>
         <v>1.9801980198019802E-2</v>
       </c>
       <c r="H6" s="5">
         <v>2</v>
       </c>
-      <c r="I6" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="J6" s="10">
+      <c r="I6" s="6">
+        <f>H6/88</f>
+        <v>2.2727272727272728E-2</v>
+      </c>
+      <c r="J6" s="7">
         <f>C6/(G6+I6)</f>
-        <v>0.50667218543046355</v>
+        <v>0.71245079365079367</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="3">
@@ -934,23 +942,24 @@
       <c r="F7" s="5">
         <v>5</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="6">
         <f>F7/202</f>
         <v>2.4752475247524754E-2</v>
       </c>
       <c r="H7" s="5">
         <v>2</v>
       </c>
-      <c r="I7" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="J7" s="10">
+      <c r="I7" s="6">
+        <f>H7/88</f>
+        <v>2.2727272727272728E-2</v>
+      </c>
+      <c r="J7" s="7">
         <f>C7/(G7+I7)</f>
-        <v>0.505</v>
+        <v>0.68871469194312795</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="3">
@@ -968,23 +977,24 @@
       <c r="F8" s="5">
         <v>6</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="6">
         <f>F8/202</f>
         <v>2.9702970297029702E-2</v>
       </c>
       <c r="H8" s="5">
         <v>2</v>
       </c>
-      <c r="I8" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="J8" s="10">
+      <c r="I8" s="6">
+        <f>H8/88</f>
+        <v>2.2727272727272728E-2</v>
+      </c>
+      <c r="J8" s="7">
         <f>C8/(G8+I8)</f>
-        <v>0.48634943181818174</v>
+        <v>0.64657339055793994</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="3">
@@ -1002,23 +1012,24 @@
       <c r="F9" s="5">
         <v>3</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="6">
         <f>F9/202</f>
         <v>1.4851485148514851E-2</v>
       </c>
       <c r="H9" s="5">
         <v>2</v>
       </c>
-      <c r="I9" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="J9" s="10">
+      <c r="I9" s="6">
+        <f>H9/88</f>
+        <v>2.2727272727272728E-2</v>
+      </c>
+      <c r="J9" s="7">
         <f>C9/(G9+I9)</f>
-        <v>0.46306859205776169</v>
+        <v>0.67591377245508977</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="3">
@@ -1036,23 +1047,24 @@
       <c r="F10" s="5">
         <v>5</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="6">
         <f>F10/202</f>
         <v>2.4752475247524754E-2</v>
       </c>
       <c r="H10" s="5">
         <v>2</v>
       </c>
-      <c r="I10" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="J10" s="10">
+      <c r="I10" s="6">
+        <f>H10/88</f>
+        <v>2.2727272727272728E-2</v>
+      </c>
+      <c r="J10" s="7">
         <f>C10/(G10+I10)</f>
-        <v>0.44940366972477064</v>
+        <v>0.61289289099526068</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="3">
@@ -1070,23 +1082,24 @@
       <c r="F11" s="5">
         <v>5</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="6">
         <f>F11/202</f>
         <v>2.4752475247524754E-2</v>
       </c>
       <c r="H11" s="5">
         <v>2</v>
       </c>
-      <c r="I11" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="J11" s="10">
+      <c r="I11" s="6">
+        <f>H11/88</f>
+        <v>2.2727272727272728E-2</v>
+      </c>
+      <c r="J11" s="7">
         <f>C11/(G11+I11)</f>
-        <v>0.42932721712538224</v>
+        <v>0.58551279620853069</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="3">
@@ -1104,23 +1117,24 @@
       <c r="F12" s="5">
         <v>5</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="6">
         <f>F12/202</f>
         <v>2.4752475247524754E-2</v>
       </c>
       <c r="H12" s="5">
         <v>2</v>
       </c>
-      <c r="I12" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="J12" s="10">
+      <c r="I12" s="6">
+        <f>H12/88</f>
+        <v>2.2727272727272728E-2</v>
+      </c>
+      <c r="J12" s="7">
         <f>C12/(G12+I12)</f>
-        <v>0.42932721712538224</v>
+        <v>0.58551279620853069</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="3">
@@ -1138,23 +1152,24 @@
       <c r="F13" s="5">
         <v>3</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="6">
         <f>F13/202</f>
         <v>1.4851485148514851E-2</v>
       </c>
       <c r="H13" s="5">
         <v>2</v>
       </c>
-      <c r="I13" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="J13" s="10">
+      <c r="I13" s="6">
+        <f>H13/88</f>
+        <v>2.2727272727272728E-2</v>
+      </c>
+      <c r="J13" s="7">
         <f>C13/(G13+I13)</f>
-        <v>0.41931407942238269</v>
+        <v>0.61204790419161681</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="3">
@@ -1172,23 +1187,24 @@
       <c r="F14" s="5">
         <v>3</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="6">
         <f>F14/202</f>
         <v>1.4851485148514851E-2</v>
       </c>
       <c r="H14" s="5">
         <v>2</v>
       </c>
-      <c r="I14" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="J14" s="10">
+      <c r="I14" s="6">
+        <f>H14/88</f>
+        <v>2.2727272727272728E-2</v>
+      </c>
+      <c r="J14" s="7">
         <f>C14/(G14+I14)</f>
-        <v>0.41931407942238269</v>
+        <v>0.61204790419161681</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="8" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="3">
@@ -1206,23 +1222,24 @@
       <c r="F15" s="5">
         <v>6</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="6">
         <f>F15/202</f>
         <v>2.9702970297029702E-2</v>
       </c>
       <c r="H15" s="5">
         <v>2</v>
       </c>
-      <c r="I15" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="J15" s="10">
+      <c r="I15" s="6">
+        <f>H15/88</f>
+        <v>2.2727272727272728E-2</v>
+      </c>
+      <c r="J15" s="7">
         <f>C15/(G15+I15)</f>
-        <v>0.41748579545454545</v>
+        <v>0.55502317596566531</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B16" s="3">
@@ -1240,23 +1257,24 @@
       <c r="F16" s="5">
         <v>5</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="6">
         <f>F16/202</f>
         <v>2.4752475247524754E-2</v>
       </c>
       <c r="H16" s="5">
         <v>2</v>
       </c>
-      <c r="I16" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="J16" s="10">
+      <c r="I16" s="6">
+        <f>H16/88</f>
+        <v>2.2727272727272728E-2</v>
+      </c>
+      <c r="J16" s="7">
         <f>C16/(G16+I16)</f>
-        <v>0.41079510703363908</v>
+        <v>0.5602388625592416</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B17" s="3">
@@ -1274,23 +1292,24 @@
       <c r="F17" s="5">
         <v>4</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="6">
         <f>F17/202</f>
         <v>1.9801980198019802E-2</v>
       </c>
       <c r="H17" s="5">
         <v>2</v>
       </c>
-      <c r="I17" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="J17" s="10">
+      <c r="I17" s="6">
+        <f>H17/88</f>
+        <v>2.2727272727272728E-2</v>
+      </c>
+      <c r="J17" s="7">
         <f>C17/(G17+I17)</f>
-        <v>0.40466887417218544</v>
+        <v>0.56902010582010587</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="8" t="s">
         <v>26</v>
       </c>
       <c r="B18" s="3">
@@ -1308,23 +1327,24 @@
       <c r="F18" s="5">
         <v>6</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="6">
         <f>F18/202</f>
         <v>2.9702970297029702E-2</v>
       </c>
       <c r="H18" s="5">
         <v>2</v>
       </c>
-      <c r="I18" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="J18" s="10">
+      <c r="I18" s="6">
+        <f>H18/88</f>
+        <v>2.2727272727272728E-2</v>
+      </c>
+      <c r="J18" s="7">
         <f>C18/(G18+I18)</f>
-        <v>0.39883522727272719</v>
+        <v>0.5302283261802575</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="8" t="s">
         <v>27</v>
       </c>
       <c r="B19" s="3">
@@ -1342,23 +1362,24 @@
       <c r="F19" s="5">
         <v>3</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="6">
         <f>F19/202</f>
         <v>1.4851485148514851E-2</v>
       </c>
       <c r="H19" s="5">
         <v>2</v>
       </c>
-      <c r="I19" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="J19" s="10">
+      <c r="I19" s="6">
+        <f>H19/88</f>
+        <v>2.2727272727272728E-2</v>
+      </c>
+      <c r="J19" s="7">
         <f>C19/(G19+I19)</f>
-        <v>0.39743682310469314</v>
+        <v>0.58011497005988022</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="8" t="s">
         <v>28</v>
       </c>
       <c r="B20" s="3">
@@ -1376,23 +1397,24 @@
       <c r="F20" s="5">
         <v>3</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="6">
         <f>F20/202</f>
         <v>1.4851485148514851E-2</v>
       </c>
       <c r="H20" s="5">
         <v>2</v>
       </c>
-      <c r="I20" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="J20" s="10">
+      <c r="I20" s="6">
+        <f>H20/88</f>
+        <v>2.2727272727272728E-2</v>
+      </c>
+      <c r="J20" s="7">
         <f>C20/(G20+I20)</f>
-        <v>0.39743682310469314</v>
+        <v>0.58011497005988022</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="8" t="s">
         <v>29</v>
       </c>
       <c r="B21" s="3">
@@ -1410,23 +1432,24 @@
       <c r="F21" s="5">
         <v>7</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="6">
         <f>F21/202</f>
         <v>3.4653465346534656E-2</v>
       </c>
       <c r="H21" s="5">
         <v>2</v>
       </c>
-      <c r="I21" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="J21" s="10">
+      <c r="I21" s="6">
+        <f>H21/88</f>
+        <v>2.2727272727272728E-2</v>
+      </c>
+      <c r="J21" s="7">
         <f>C21/(G21+I21)</f>
-        <v>0.38980106100795753</v>
+        <v>0.50713882352941175</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="3">
@@ -1444,23 +1467,24 @@
       <c r="F22" s="5">
         <v>4</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="6">
         <f>F22/202</f>
         <v>1.9801980198019802E-2</v>
       </c>
       <c r="H22" s="5">
         <v>2</v>
       </c>
-      <c r="I22" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="J22" s="10">
+      <c r="I22" s="6">
+        <f>H22/88</f>
+        <v>2.2727272727272728E-2</v>
+      </c>
+      <c r="J22" s="7">
         <f>C22/(G22+I22)</f>
-        <v>0.3846026490066225</v>
+        <v>0.54080423280423284</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="3">
@@ -1478,23 +1502,24 @@
       <c r="F23" s="5">
         <v>6</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="6">
         <f>F23/202</f>
         <v>2.9702970297029702E-2</v>
       </c>
       <c r="H23" s="5">
         <v>2</v>
       </c>
-      <c r="I23" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="J23" s="10">
+      <c r="I23" s="6">
+        <f>H23/88</f>
+        <v>2.2727272727272728E-2</v>
+      </c>
+      <c r="J23" s="7">
         <f>C23/(G23+I23)</f>
-        <v>0.3816193181818181</v>
+        <v>0.50734077253218879</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="3">
@@ -1512,23 +1537,24 @@
       <c r="F24" s="5">
         <v>3</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="6">
         <f>F24/202</f>
         <v>1.4851485148514851E-2</v>
       </c>
       <c r="H24" s="5">
         <v>2</v>
       </c>
-      <c r="I24" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="J24" s="10">
+      <c r="I24" s="6">
+        <f>H24/88</f>
+        <v>2.2727272727272728E-2</v>
+      </c>
+      <c r="J24" s="7">
         <f>C24/(G24+I24)</f>
-        <v>0.37555956678700364</v>
+        <v>0.54818203592814374</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="8" t="s">
         <v>31</v>
       </c>
       <c r="B25" s="3">
@@ -1546,23 +1572,24 @@
       <c r="F25" s="5">
         <v>5</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="6">
         <f>F25/202</f>
         <v>2.4752475247524754E-2</v>
       </c>
       <c r="H25" s="5">
         <v>2</v>
       </c>
-      <c r="I25" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="J25" s="10">
+      <c r="I25" s="6">
+        <f>H25/88</f>
+        <v>2.2727272727272728E-2</v>
+      </c>
+      <c r="J25" s="7">
         <f>C25/(G25+I25)</f>
-        <v>0.37373088685015288</v>
+        <v>0.50969099526066353</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="8" t="s">
         <v>32</v>
       </c>
       <c r="B26" s="3">
@@ -1580,23 +1607,24 @@
       <c r="F26" s="5">
         <v>5</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G26" s="6">
         <f>F26/202</f>
         <v>2.4752475247524754E-2</v>
       </c>
       <c r="H26" s="5">
         <v>2</v>
       </c>
-      <c r="I26" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="J26" s="10">
+      <c r="I26" s="6">
+        <f>H26/88</f>
+        <v>2.2727272727272728E-2</v>
+      </c>
+      <c r="J26" s="7">
         <f>C26/(G26+I26)</f>
-        <v>0.37373088685015288</v>
+        <v>0.50969099526066353</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="8" t="s">
         <v>33</v>
       </c>
       <c r="B27" s="3">
@@ -1614,23 +1642,24 @@
       <c r="F27" s="5">
         <v>7</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G27" s="6">
         <f>F27/202</f>
         <v>3.4653465346534656E-2</v>
       </c>
       <c r="H27" s="5">
         <v>2</v>
       </c>
-      <c r="I27" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="J27" s="10">
+      <c r="I27" s="6">
+        <f>H27/88</f>
+        <v>2.2727272727272728E-2</v>
+      </c>
+      <c r="J27" s="7">
         <f>C27/(G27+I27)</f>
-        <v>0.35631299734748001</v>
+        <v>0.46357019607843131</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="8" t="s">
         <v>27</v>
       </c>
       <c r="B28" s="3">
@@ -1648,23 +1677,24 @@
       <c r="F28" s="5">
         <v>3</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G28" s="6">
         <f>F28/202</f>
         <v>1.4851485148514851E-2</v>
       </c>
       <c r="H28" s="5">
         <v>2</v>
       </c>
-      <c r="I28" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="J28" s="10">
+      <c r="I28" s="6">
+        <f>H28/88</f>
+        <v>2.2727272727272728E-2</v>
+      </c>
+      <c r="J28" s="7">
         <f>C28/(G28+I28)</f>
-        <v>0.35368231046931409</v>
+        <v>0.51624910179640715</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="8" t="s">
         <v>34</v>
       </c>
       <c r="B29" s="3">
@@ -1682,23 +1712,24 @@
       <c r="F29" s="5">
         <v>6</v>
       </c>
-      <c r="G29" s="9">
+      <c r="G29" s="6">
         <f>F29/202</f>
         <v>2.9702970297029702E-2</v>
       </c>
       <c r="H29" s="5">
         <v>2</v>
       </c>
-      <c r="I29" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="J29" s="10">
+      <c r="I29" s="6">
+        <f>H29/88</f>
+        <v>2.2727272727272728E-2</v>
+      </c>
+      <c r="J29" s="7">
         <f>C29/(G29+I29)</f>
-        <v>0.34718749999999998</v>
+        <v>0.46156566523605147</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="8" t="s">
         <v>35</v>
       </c>
       <c r="B30" s="3">
@@ -1716,23 +1747,24 @@
       <c r="F30" s="5">
         <v>7</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G30" s="6">
         <f>F30/202</f>
         <v>3.4653465346534656E-2</v>
       </c>
       <c r="H30" s="5">
         <v>2</v>
       </c>
-      <c r="I30" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="J30" s="10">
+      <c r="I30" s="6">
+        <f>H30/88</f>
+        <v>2.2727272727272728E-2</v>
+      </c>
+      <c r="J30" s="7">
         <f>C30/(G30+I30)</f>
-        <v>0.34023872679045086</v>
+        <v>0.44265725490196073</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="8" t="s">
         <v>36</v>
       </c>
       <c r="B31" s="3">
@@ -1750,23 +1782,24 @@
       <c r="F31" s="5">
         <v>5</v>
       </c>
-      <c r="G31" s="9">
+      <c r="G31" s="6">
         <f>F31/202</f>
         <v>2.4752475247524754E-2</v>
       </c>
       <c r="H31" s="5">
         <v>2</v>
       </c>
-      <c r="I31" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="J31" s="10">
+      <c r="I31" s="6">
+        <f>H31/88</f>
+        <v>2.2727272727272728E-2</v>
+      </c>
+      <c r="J31" s="7">
         <f>C31/(G31+I31)</f>
-        <v>0.33666666666666667</v>
+        <v>0.45914312796208528</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="8" t="s">
         <v>37</v>
       </c>
       <c r="B32" s="3">
@@ -1784,23 +1817,24 @@
       <c r="F32" s="5">
         <v>7</v>
       </c>
-      <c r="G32" s="9">
+      <c r="G32" s="6">
         <f>F32/202</f>
         <v>3.4653465346534656E-2</v>
       </c>
       <c r="H32" s="5">
         <v>2</v>
       </c>
-      <c r="I32" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="J32" s="10">
+      <c r="I32" s="6">
+        <f>H32/88</f>
+        <v>2.2727272727272728E-2</v>
+      </c>
+      <c r="J32" s="7">
         <f>C32/(G32+I32)</f>
-        <v>0.32416445623342172</v>
+        <v>0.42174431372549015</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="8" t="s">
         <v>38</v>
       </c>
       <c r="B33" s="3">
@@ -1818,23 +1852,24 @@
       <c r="F33" s="5">
         <v>3</v>
       </c>
-      <c r="G33" s="9">
+      <c r="G33" s="6">
         <f>F33/202</f>
         <v>1.4851485148514851E-2</v>
       </c>
       <c r="H33" s="5">
         <v>2</v>
       </c>
-      <c r="I33" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="J33" s="10">
+      <c r="I33" s="6">
+        <f>H33/88</f>
+        <v>2.2727272727272728E-2</v>
+      </c>
+      <c r="J33" s="7">
         <f>C33/(G33+I33)</f>
-        <v>0.30810469314079419</v>
+        <v>0.44972215568862273</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="8" t="s">
         <v>39</v>
       </c>
       <c r="B34" s="3">
@@ -1852,23 +1887,24 @@
       <c r="F34" s="5">
         <v>4</v>
       </c>
-      <c r="G34" s="9">
+      <c r="G34" s="6">
         <f>F34/202</f>
         <v>1.9801980198019802E-2</v>
       </c>
       <c r="H34" s="5">
         <v>2</v>
       </c>
-      <c r="I34" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="J34" s="10">
+      <c r="I34" s="6">
+        <f>H34/88</f>
+        <v>2.2727272727272728E-2</v>
+      </c>
+      <c r="J34" s="7">
         <f>C34/(G34+I34)</f>
-        <v>0.30433774834437088</v>
+        <v>0.42794074074074079</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="8" t="s">
         <v>40</v>
       </c>
       <c r="B35" s="3">
@@ -1886,23 +1922,24 @@
       <c r="F35" s="5">
         <v>3</v>
       </c>
-      <c r="G35" s="9">
+      <c r="G35" s="6">
         <f>F35/202</f>
         <v>1.4851485148514851E-2</v>
       </c>
       <c r="H35" s="5">
         <v>2</v>
       </c>
-      <c r="I35" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="J35" s="10">
+      <c r="I35" s="6">
+        <f>H35/88</f>
+        <v>2.2727272727272728E-2</v>
+      </c>
+      <c r="J35" s="7">
         <f>C35/(G35+I35)</f>
-        <v>0.28622743682310464</v>
+        <v>0.41778922155688619</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="8" t="s">
         <v>41</v>
       </c>
       <c r="B36" s="3">
@@ -1920,23 +1957,24 @@
       <c r="F36" s="5">
         <v>4</v>
       </c>
-      <c r="G36" s="9">
+      <c r="G36" s="6">
         <f>F36/202</f>
         <v>1.9801980198019802E-2</v>
       </c>
       <c r="H36" s="5">
         <v>2</v>
       </c>
-      <c r="I36" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="J36" s="10">
+      <c r="I36" s="6">
+        <f>H36/88</f>
+        <v>2.2727272727272728E-2</v>
+      </c>
+      <c r="J36" s="7">
         <f>C36/(G36+I36)</f>
-        <v>0.28259933774834434</v>
+        <v>0.39737354497354493</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="8" t="s">
         <v>42</v>
       </c>
       <c r="B37" s="3">
@@ -1954,23 +1992,24 @@
       <c r="F37" s="5">
         <v>4</v>
       </c>
-      <c r="G37" s="9">
+      <c r="G37" s="6">
         <f>F37/202</f>
         <v>1.9801980198019802E-2</v>
       </c>
       <c r="H37" s="5">
         <v>2</v>
       </c>
-      <c r="I37" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="J37" s="10">
+      <c r="I37" s="6">
+        <f>H37/88</f>
+        <v>2.2727272727272728E-2</v>
+      </c>
+      <c r="J37" s="7">
         <f>C37/(G37+I37)</f>
-        <v>0.28259933774834434</v>
+        <v>0.39737354497354493</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="8" t="s">
         <v>43</v>
       </c>
       <c r="B38" s="3">
@@ -1988,23 +2027,24 @@
       <c r="F38" s="5">
         <v>5</v>
       </c>
-      <c r="G38" s="9">
+      <c r="G38" s="6">
         <f>F38/202</f>
         <v>2.4752475247524754E-2</v>
       </c>
       <c r="H38" s="5">
         <v>2</v>
       </c>
-      <c r="I38" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="J38" s="10">
+      <c r="I38" s="6">
+        <f>H38/88</f>
+        <v>2.2727272727272728E-2</v>
+      </c>
+      <c r="J38" s="7">
         <f>C38/(G38+I38)</f>
-        <v>0.2810703363914373</v>
+        <v>0.38332132701421801</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="8" t="s">
         <v>44</v>
       </c>
       <c r="B39" s="3">
@@ -2022,23 +2062,24 @@
       <c r="F39" s="5">
         <v>5</v>
       </c>
-      <c r="G39" s="9">
+      <c r="G39" s="6">
         <f>F39/202</f>
         <v>2.4752475247524754E-2</v>
       </c>
       <c r="H39" s="5">
         <v>2</v>
       </c>
-      <c r="I39" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="J39" s="10">
+      <c r="I39" s="6">
+        <f>H39/88</f>
+        <v>2.2727272727272728E-2</v>
+      </c>
+      <c r="J39" s="7">
         <f>C39/(G39+I39)</f>
-        <v>0.2810703363914373</v>
+        <v>0.38332132701421801</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="8" t="s">
         <v>45</v>
       </c>
       <c r="B40" s="3">
@@ -2056,23 +2097,24 @@
       <c r="F40" s="5">
         <v>3</v>
       </c>
-      <c r="G40" s="9">
+      <c r="G40" s="6">
         <f>F40/202</f>
         <v>1.4851485148514851E-2</v>
       </c>
       <c r="H40" s="5">
         <v>2</v>
       </c>
-      <c r="I40" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="J40" s="10">
+      <c r="I40" s="6">
+        <f>H40/88</f>
+        <v>2.2727272727272728E-2</v>
+      </c>
+      <c r="J40" s="7">
         <f>C40/(G40+I40)</f>
-        <v>0.2643501805054152</v>
+        <v>0.38585628742514971</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="8" t="s">
         <v>46</v>
       </c>
       <c r="B41" s="3">
@@ -2090,23 +2132,24 @@
       <c r="F41" s="5">
         <v>5</v>
       </c>
-      <c r="G41" s="9">
+      <c r="G41" s="6">
         <f>F41/202</f>
         <v>2.4752475247524754E-2</v>
       </c>
       <c r="H41" s="5">
         <v>2</v>
       </c>
-      <c r="I41" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="J41" s="10">
+      <c r="I41" s="6">
+        <f>H41/88</f>
+        <v>2.2727272727272728E-2</v>
+      </c>
+      <c r="J41" s="7">
         <f>C41/(G41+I41)</f>
-        <v>0.26099388379204891</v>
+        <v>0.35594123222748808</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="8" t="s">
         <v>47</v>
       </c>
       <c r="B42" s="3">
@@ -2124,23 +2167,24 @@
       <c r="F42" s="5">
         <v>6</v>
       </c>
-      <c r="G42" s="9">
+      <c r="G42" s="6">
         <f>F42/202</f>
         <v>2.9702970297029702E-2</v>
       </c>
       <c r="H42" s="5">
         <v>2</v>
       </c>
-      <c r="I42" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="J42" s="10">
+      <c r="I42" s="6">
+        <f>H42/88</f>
+        <v>2.2727272727272728E-2</v>
+      </c>
+      <c r="J42" s="7">
         <f>C42/(G42+I42)</f>
-        <v>0.22524147727272723</v>
+        <v>0.29944549356223171</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="11" t="s">
+      <c r="A43" s="8" t="s">
         <v>48</v>
       </c>
       <c r="B43" s="3">
@@ -2158,23 +2202,24 @@
       <c r="F43" s="5">
         <v>5</v>
       </c>
-      <c r="G43" s="9">
+      <c r="G43" s="6">
         <f>F43/202</f>
         <v>2.4752475247524754E-2</v>
       </c>
       <c r="H43" s="5">
         <v>2</v>
       </c>
-      <c r="I43" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="J43" s="10">
+      <c r="I43" s="6">
+        <f>H43/88</f>
+        <v>2.2727272727272728E-2</v>
+      </c>
+      <c r="J43" s="7">
         <f>C43/(G43+I43)</f>
-        <v>0.2239296636085627</v>
+        <v>0.30539336492890995</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="11" t="s">
+      <c r="A44" s="8" t="s">
         <v>49</v>
       </c>
       <c r="B44" s="3">
@@ -2192,23 +2237,24 @@
       <c r="F44" s="5">
         <v>4</v>
       </c>
-      <c r="G44" s="9">
+      <c r="G44" s="6">
         <f>F44/202</f>
         <v>1.9801980198019802E-2</v>
       </c>
       <c r="H44" s="5">
         <v>2</v>
       </c>
-      <c r="I44" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="J44" s="10">
+      <c r="I44" s="6">
+        <f>H44/88</f>
+        <v>2.2727272727272728E-2</v>
+      </c>
+      <c r="J44" s="7">
         <f>C44/(G44+I44)</f>
-        <v>0.16220198675496689</v>
+        <v>0.22807830687830691</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="11" t="s">
+      <c r="A45" s="8" t="s">
         <v>50</v>
       </c>
       <c r="B45" s="3">
@@ -2226,23 +2272,24 @@
       <c r="F45" s="5">
         <v>3</v>
       </c>
-      <c r="G45" s="9">
+      <c r="G45" s="6">
         <f>F45/202</f>
         <v>1.4851485148514851E-2</v>
       </c>
       <c r="H45" s="5">
         <v>2</v>
       </c>
-      <c r="I45" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="J45" s="10">
+      <c r="I45" s="6">
+        <f>H45/88</f>
+        <v>2.2727272727272728E-2</v>
+      </c>
+      <c r="J45" s="7">
         <f>C45/(G45+I45)</f>
-        <v>0.13308664259927797</v>
+        <v>0.19425868263473053</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="11" t="s">
+      <c r="A46" s="8" t="s">
         <v>51</v>
       </c>
       <c r="B46" s="3">
@@ -2260,23 +2307,24 @@
       <c r="F46" s="5">
         <v>4</v>
       </c>
-      <c r="G46" s="9">
+      <c r="G46" s="6">
         <f>F46/202</f>
         <v>1.9801980198019802E-2</v>
       </c>
       <c r="H46" s="5">
         <v>2</v>
       </c>
-      <c r="I46" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="J46" s="10">
+      <c r="I46" s="6">
+        <f>H46/88</f>
+        <v>2.2727272727272728E-2</v>
+      </c>
+      <c r="J46" s="7">
         <f>C46/(G46+I46)</f>
-        <v>0.12206953642384107</v>
+        <v>0.17164656084656085</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="11" t="s">
+      <c r="A47" s="8" t="s">
         <v>52</v>
       </c>
       <c r="B47" s="3">
@@ -2294,23 +2342,24 @@
       <c r="F47" s="5">
         <v>5</v>
       </c>
-      <c r="G47" s="9">
+      <c r="G47" s="6">
         <f>F47/202</f>
         <v>2.4752475247524754E-2</v>
       </c>
       <c r="H47" s="5">
         <v>2</v>
       </c>
-      <c r="I47" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="J47" s="10">
+      <c r="I47" s="6">
+        <f>H47/88</f>
+        <v>2.2727272727272728E-2</v>
+      </c>
+      <c r="J47" s="7">
         <f>C47/(G47+I47)</f>
-        <v>0.11273700305810397</v>
+        <v>0.15374976303317536</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A4:J47">
+  <sortState ref="A4:J104">
     <sortCondition descending="1" ref="J4:J47"/>
   </sortState>
   <mergeCells count="9">
@@ -2335,82 +2384,87 @@
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="J42" sqref="A4:J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="10" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="10" t="s">
         <v>8</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
       <c r="G3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="7"/>
+      <c r="H3" s="11"/>
       <c r="I3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="7"/>
+      <c r="J3" s="11"/>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="3">
         <v>30</v>
       </c>
-      <c r="C4" s="4">
-        <v>3.6299999999999999E-2</v>
+      <c r="C4" s="7">
+        <f>B4/685</f>
+        <v>4.3795620437956206E-2</v>
       </c>
       <c r="D4" s="3">
         <v>10</v>
@@ -2421,30 +2475,32 @@
       <c r="F4" s="5">
         <v>5</v>
       </c>
-      <c r="G4" s="9">
-        <f>F4/202</f>
-        <v>2.4752475247524754E-2</v>
+      <c r="G4" s="6">
+        <f>F4/168</f>
+        <v>2.976190476190476E-2</v>
       </c>
       <c r="H4" s="5">
         <v>2</v>
       </c>
-      <c r="I4" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="J4" s="10">
-        <f>C4/(G4+I4)</f>
-        <v>0.56059633027522937</v>
+      <c r="I4" s="6">
+        <f>2/78</f>
+        <v>2.564102564102564E-2</v>
+      </c>
+      <c r="J4" s="7">
+        <f t="shared" ref="J4:J42" si="0">C4/(G4+I4)</f>
+        <v>0.79049285154129223</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="3">
         <v>24</v>
       </c>
-      <c r="C5" s="4">
-        <v>2.9100000000000001E-2</v>
+      <c r="C5" s="7">
+        <f t="shared" ref="C5:C42" si="1">B5/685</f>
+        <v>3.5036496350364967E-2</v>
       </c>
       <c r="D5" s="3">
         <v>8</v>
@@ -2455,30 +2511,32 @@
       <c r="F5" s="5">
         <v>3</v>
       </c>
-      <c r="G5" s="9">
-        <f>F5/202</f>
-        <v>1.4851485148514851E-2</v>
+      <c r="G5" s="6">
+        <f t="shared" ref="G5:G42" si="2">F5/168</f>
+        <v>1.7857142857142856E-2</v>
       </c>
       <c r="H5" s="5">
         <v>2</v>
       </c>
-      <c r="I5" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="J5" s="10">
-        <f>C5/(G5+I5)</f>
-        <v>0.53052346570397113</v>
+      <c r="I5" s="6">
+        <f t="shared" ref="I5:I42" si="3">2/78</f>
+        <v>2.564102564102564E-2</v>
+      </c>
+      <c r="J5" s="7">
+        <f t="shared" si="0"/>
+        <v>0.80547061083365357</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="3">
         <v>25</v>
       </c>
-      <c r="C6" s="4">
-        <v>3.0300000000000001E-2</v>
+      <c r="C6" s="7">
+        <f t="shared" si="1"/>
+        <v>3.6496350364963501E-2</v>
       </c>
       <c r="D6" s="3">
         <v>8</v>
@@ -2489,30 +2547,32 @@
       <c r="F6" s="5">
         <v>4</v>
       </c>
-      <c r="G6" s="9">
-        <f>F6/202</f>
-        <v>1.9801980198019802E-2</v>
+      <c r="G6" s="6">
+        <f t="shared" si="2"/>
+        <v>2.3809523809523808E-2</v>
       </c>
       <c r="H6" s="5">
         <v>2</v>
       </c>
-      <c r="I6" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="J6" s="10">
-        <f>C6/(G6+I6)</f>
-        <v>0.50667218543046355</v>
+      <c r="I6" s="6">
+        <f t="shared" si="3"/>
+        <v>2.564102564102564E-2</v>
+      </c>
+      <c r="J6" s="7">
+        <f t="shared" si="0"/>
+        <v>0.7380373073803731</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="3">
         <v>27</v>
       </c>
-      <c r="C7" s="4">
-        <v>3.27E-2</v>
+      <c r="C7" s="7">
+        <f t="shared" si="1"/>
+        <v>3.9416058394160583E-2</v>
       </c>
       <c r="D7" s="3">
         <v>9</v>
@@ -2523,30 +2583,32 @@
       <c r="F7" s="5">
         <v>5</v>
       </c>
-      <c r="G7" s="9">
-        <f>F7/202</f>
-        <v>2.4752475247524754E-2</v>
+      <c r="G7" s="6">
+        <f t="shared" si="2"/>
+        <v>2.976190476190476E-2</v>
       </c>
       <c r="H7" s="5">
         <v>2</v>
       </c>
-      <c r="I7" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="J7" s="10">
-        <f>C7/(G7+I7)</f>
-        <v>0.505</v>
+      <c r="I7" s="6">
+        <f t="shared" si="3"/>
+        <v>2.564102564102564E-2</v>
+      </c>
+      <c r="J7" s="7">
+        <f t="shared" si="0"/>
+        <v>0.711443566387163</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="3">
         <v>28</v>
       </c>
-      <c r="C8" s="4">
-        <v>3.39E-2</v>
+      <c r="C8" s="7">
+        <f t="shared" si="1"/>
+        <v>4.0875912408759124E-2</v>
       </c>
       <c r="D8" s="3">
         <v>9</v>
@@ -2557,30 +2619,32 @@
       <c r="F8" s="5">
         <v>6</v>
       </c>
-      <c r="G8" s="9">
-        <f>F8/202</f>
-        <v>2.9702970297029702E-2</v>
+      <c r="G8" s="6">
+        <f t="shared" si="2"/>
+        <v>3.5714285714285712E-2</v>
       </c>
       <c r="H8" s="5">
         <v>2</v>
       </c>
-      <c r="I8" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="J8" s="10">
-        <f>C8/(G8+I8)</f>
-        <v>0.48634943181818174</v>
+      <c r="I8" s="6">
+        <f t="shared" si="3"/>
+        <v>2.564102564102564E-2</v>
+      </c>
+      <c r="J8" s="7">
+        <f t="shared" si="0"/>
+        <v>0.66621636343828305</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="3">
         <v>21</v>
       </c>
-      <c r="C9" s="4">
-        <v>2.5399999999999999E-2</v>
+      <c r="C9" s="7">
+        <f t="shared" si="1"/>
+        <v>3.0656934306569343E-2</v>
       </c>
       <c r="D9" s="3">
         <v>7</v>
@@ -2591,30 +2655,32 @@
       <c r="F9" s="5">
         <v>3</v>
       </c>
-      <c r="G9" s="9">
-        <f>F9/202</f>
-        <v>1.4851485148514851E-2</v>
+      <c r="G9" s="6">
+        <f t="shared" si="2"/>
+        <v>1.7857142857142856E-2</v>
       </c>
       <c r="H9" s="5">
         <v>2</v>
       </c>
-      <c r="I9" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="J9" s="10">
-        <f>C9/(G9+I9)</f>
-        <v>0.46306859205776169</v>
+      <c r="I9" s="6">
+        <f t="shared" si="3"/>
+        <v>2.564102564102564E-2</v>
+      </c>
+      <c r="J9" s="7">
+        <f t="shared" si="0"/>
+        <v>0.70478678447944687</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="3">
         <v>24</v>
       </c>
-      <c r="C10" s="4">
-        <v>2.9100000000000001E-2</v>
+      <c r="C10" s="7">
+        <f t="shared" si="1"/>
+        <v>3.5036496350364967E-2</v>
       </c>
       <c r="D10" s="3">
         <v>8</v>
@@ -2625,30 +2691,32 @@
       <c r="F10" s="5">
         <v>5</v>
       </c>
-      <c r="G10" s="9">
-        <f>F10/202</f>
-        <v>2.4752475247524754E-2</v>
+      <c r="G10" s="6">
+        <f t="shared" si="2"/>
+        <v>2.976190476190476E-2</v>
       </c>
       <c r="H10" s="5">
         <v>2</v>
       </c>
-      <c r="I10" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="J10" s="10">
-        <f>C10/(G10+I10)</f>
-        <v>0.44940366972477064</v>
+      <c r="I10" s="6">
+        <f t="shared" si="3"/>
+        <v>2.564102564102564E-2</v>
+      </c>
+      <c r="J10" s="7">
+        <f t="shared" si="0"/>
+        <v>0.63239428123303376</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="3">
         <v>23</v>
       </c>
-      <c r="C11" s="4">
-        <v>2.7799999999999998E-2</v>
+      <c r="C11" s="7">
+        <f t="shared" si="1"/>
+        <v>3.3576642335766425E-2</v>
       </c>
       <c r="D11" s="3">
         <v>7</v>
@@ -2659,30 +2727,32 @@
       <c r="F11" s="5">
         <v>5</v>
       </c>
-      <c r="G11" s="9">
-        <f>F11/202</f>
-        <v>2.4752475247524754E-2</v>
+      <c r="G11" s="6">
+        <f t="shared" si="2"/>
+        <v>2.976190476190476E-2</v>
       </c>
       <c r="H11" s="5">
         <v>2</v>
       </c>
-      <c r="I11" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="J11" s="10">
-        <f>C11/(G11+I11)</f>
-        <v>0.42932721712538224</v>
+      <c r="I11" s="6">
+        <f t="shared" si="3"/>
+        <v>2.564102564102564E-2</v>
+      </c>
+      <c r="J11" s="7">
+        <f t="shared" si="0"/>
+        <v>0.60604451951499072</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="3">
         <v>23</v>
       </c>
-      <c r="C12" s="4">
-        <v>2.7799999999999998E-2</v>
+      <c r="C12" s="7">
+        <f t="shared" si="1"/>
+        <v>3.3576642335766425E-2</v>
       </c>
       <c r="D12" s="3">
         <v>8</v>
@@ -2693,30 +2763,32 @@
       <c r="F12" s="5">
         <v>5</v>
       </c>
-      <c r="G12" s="9">
-        <f>F12/202</f>
-        <v>2.4752475247524754E-2</v>
+      <c r="G12" s="6">
+        <f t="shared" si="2"/>
+        <v>2.976190476190476E-2</v>
       </c>
       <c r="H12" s="5">
         <v>2</v>
       </c>
-      <c r="I12" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="J12" s="10">
-        <f>C12/(G12+I12)</f>
-        <v>0.42932721712538224</v>
+      <c r="I12" s="6">
+        <f t="shared" si="3"/>
+        <v>2.564102564102564E-2</v>
+      </c>
+      <c r="J12" s="7">
+        <f t="shared" si="0"/>
+        <v>0.60604451951499072</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="3">
         <v>19</v>
       </c>
-      <c r="C13" s="4">
-        <v>2.3E-2</v>
+      <c r="C13" s="7">
+        <f t="shared" si="1"/>
+        <v>2.7737226277372264E-2</v>
       </c>
       <c r="D13" s="3">
         <v>7</v>
@@ -2727,30 +2799,32 @@
       <c r="F13" s="5">
         <v>3</v>
       </c>
-      <c r="G13" s="9">
-        <f>F13/202</f>
-        <v>1.4851485148514851E-2</v>
+      <c r="G13" s="6">
+        <f t="shared" si="2"/>
+        <v>1.7857142857142856E-2</v>
       </c>
       <c r="H13" s="5">
         <v>2</v>
       </c>
-      <c r="I13" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="J13" s="10">
-        <f>C13/(G13+I13)</f>
-        <v>0.41931407942238269</v>
+      <c r="I13" s="6">
+        <f t="shared" si="3"/>
+        <v>2.564102564102564E-2</v>
+      </c>
+      <c r="J13" s="7">
+        <f t="shared" si="0"/>
+        <v>0.63766423357664237</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="3">
         <v>19</v>
       </c>
-      <c r="C14" s="4">
-        <v>2.3E-2</v>
+      <c r="C14" s="7">
+        <f t="shared" si="1"/>
+        <v>2.7737226277372264E-2</v>
       </c>
       <c r="D14" s="3">
         <v>7</v>
@@ -2761,30 +2835,32 @@
       <c r="F14" s="5">
         <v>3</v>
       </c>
-      <c r="G14" s="9">
-        <f>F14/202</f>
-        <v>1.4851485148514851E-2</v>
+      <c r="G14" s="6">
+        <f t="shared" si="2"/>
+        <v>1.7857142857142856E-2</v>
       </c>
       <c r="H14" s="5">
         <v>2</v>
       </c>
-      <c r="I14" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="J14" s="10">
-        <f>C14/(G14+I14)</f>
-        <v>0.41931407942238269</v>
+      <c r="I14" s="6">
+        <f t="shared" si="3"/>
+        <v>2.564102564102564E-2</v>
+      </c>
+      <c r="J14" s="7">
+        <f t="shared" si="0"/>
+        <v>0.63766423357664237</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="8" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="3">
         <v>24</v>
       </c>
-      <c r="C15" s="4">
-        <v>2.9100000000000001E-2</v>
+      <c r="C15" s="7">
+        <f t="shared" si="1"/>
+        <v>3.5036496350364967E-2</v>
       </c>
       <c r="D15" s="3">
         <v>7</v>
@@ -2795,30 +2871,32 @@
       <c r="F15" s="5">
         <v>6</v>
       </c>
-      <c r="G15" s="9">
-        <f>F15/202</f>
-        <v>2.9702970297029702E-2</v>
+      <c r="G15" s="6">
+        <f t="shared" si="2"/>
+        <v>3.5714285714285712E-2</v>
       </c>
       <c r="H15" s="5">
         <v>2</v>
       </c>
-      <c r="I15" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="J15" s="10">
-        <f>C15/(G15+I15)</f>
-        <v>0.41748579545454545</v>
+      <c r="I15" s="6">
+        <f t="shared" si="3"/>
+        <v>2.564102564102564E-2</v>
+      </c>
+      <c r="J15" s="7">
+        <f t="shared" si="0"/>
+        <v>0.57104259723281414</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B16" s="3">
         <v>22</v>
       </c>
-      <c r="C16" s="4">
-        <v>2.6599999999999999E-2</v>
+      <c r="C16" s="7">
+        <f t="shared" si="1"/>
+        <v>3.2116788321167884E-2</v>
       </c>
       <c r="D16" s="3">
         <v>7</v>
@@ -2829,30 +2907,32 @@
       <c r="F16" s="5">
         <v>5</v>
       </c>
-      <c r="G16" s="9">
-        <f>F16/202</f>
-        <v>2.4752475247524754E-2</v>
+      <c r="G16" s="6">
+        <f t="shared" si="2"/>
+        <v>2.976190476190476E-2</v>
       </c>
       <c r="H16" s="5">
         <v>2</v>
       </c>
-      <c r="I16" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="J16" s="10">
-        <f>C16/(G16+I16)</f>
-        <v>0.41079510703363908</v>
+      <c r="I16" s="6">
+        <f t="shared" si="3"/>
+        <v>2.564102564102564E-2</v>
+      </c>
+      <c r="J16" s="7">
+        <f t="shared" si="0"/>
+        <v>0.57969475779694757</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B17" s="3">
         <v>20</v>
       </c>
-      <c r="C17" s="4">
-        <v>2.4199999999999999E-2</v>
+      <c r="C17" s="7">
+        <f t="shared" si="1"/>
+        <v>2.9197080291970802E-2</v>
       </c>
       <c r="D17" s="3">
         <v>6</v>
@@ -2863,30 +2943,32 @@
       <c r="F17" s="5">
         <v>4</v>
       </c>
-      <c r="G17" s="9">
-        <f>F17/202</f>
-        <v>1.9801980198019802E-2</v>
+      <c r="G17" s="6">
+        <f t="shared" si="2"/>
+        <v>2.3809523809523808E-2</v>
       </c>
       <c r="H17" s="5">
         <v>2</v>
       </c>
-      <c r="I17" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="J17" s="10">
-        <f>C17/(G17+I17)</f>
-        <v>0.40466887417218544</v>
+      <c r="I17" s="6">
+        <f t="shared" si="3"/>
+        <v>2.564102564102564E-2</v>
+      </c>
+      <c r="J17" s="7">
+        <f t="shared" si="0"/>
+        <v>0.59042984590429848</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="8" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="3">
         <v>18</v>
       </c>
-      <c r="C18" s="4">
-        <v>2.18E-2</v>
+      <c r="C18" s="7">
+        <f t="shared" si="1"/>
+        <v>2.6277372262773723E-2</v>
       </c>
       <c r="D18" s="3">
         <v>5</v>
@@ -2897,30 +2979,32 @@
       <c r="F18" s="5">
         <v>3</v>
       </c>
-      <c r="G18" s="9">
-        <f>F18/202</f>
-        <v>1.4851485148514851E-2</v>
+      <c r="G18" s="6">
+        <f t="shared" si="2"/>
+        <v>1.7857142857142856E-2</v>
       </c>
       <c r="H18" s="5">
         <v>2</v>
       </c>
-      <c r="I18" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="J18" s="10">
-        <f>C18/(G18+I18)</f>
-        <v>0.39743682310469314</v>
+      <c r="I18" s="6">
+        <f t="shared" si="3"/>
+        <v>2.564102564102564E-2</v>
+      </c>
+      <c r="J18" s="7">
+        <f t="shared" si="0"/>
+        <v>0.60410295812524017</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="8" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="3">
         <v>18</v>
       </c>
-      <c r="C19" s="4">
-        <v>2.18E-2</v>
+      <c r="C19" s="7">
+        <f t="shared" si="1"/>
+        <v>2.6277372262773723E-2</v>
       </c>
       <c r="D19" s="3">
         <v>6</v>
@@ -2931,30 +3015,32 @@
       <c r="F19" s="5">
         <v>3</v>
       </c>
-      <c r="G19" s="9">
-        <f>F19/202</f>
-        <v>1.4851485148514851E-2</v>
+      <c r="G19" s="6">
+        <f t="shared" si="2"/>
+        <v>1.7857142857142856E-2</v>
       </c>
       <c r="H19" s="5">
         <v>2</v>
       </c>
-      <c r="I19" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="J19" s="10">
-        <f>C19/(G19+I19)</f>
-        <v>0.39743682310469314</v>
+      <c r="I19" s="6">
+        <f t="shared" si="3"/>
+        <v>2.564102564102564E-2</v>
+      </c>
+      <c r="J19" s="7">
+        <f t="shared" si="0"/>
+        <v>0.60410295812524017</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="3">
         <v>19</v>
       </c>
-      <c r="C20" s="4">
-        <v>2.3E-2</v>
+      <c r="C20" s="7">
+        <f t="shared" si="1"/>
+        <v>2.7737226277372264E-2</v>
       </c>
       <c r="D20" s="3">
         <v>6</v>
@@ -2965,30 +3051,32 @@
       <c r="F20" s="5">
         <v>4</v>
       </c>
-      <c r="G20" s="9">
-        <f>F20/202</f>
-        <v>1.9801980198019802E-2</v>
+      <c r="G20" s="6">
+        <f t="shared" si="2"/>
+        <v>2.3809523809523808E-2</v>
       </c>
       <c r="H20" s="5">
         <v>2</v>
       </c>
-      <c r="I20" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="J20" s="10">
-        <f>C20/(G20+I20)</f>
-        <v>0.3846026490066225</v>
+      <c r="I20" s="6">
+        <f t="shared" si="3"/>
+        <v>2.564102564102564E-2</v>
+      </c>
+      <c r="J20" s="7">
+        <f t="shared" si="0"/>
+        <v>0.56090835360908364</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B21" s="3">
         <v>22</v>
       </c>
-      <c r="C21" s="4">
-        <v>2.6599999999999999E-2</v>
+      <c r="C21" s="7">
+        <f t="shared" si="1"/>
+        <v>3.2116788321167884E-2</v>
       </c>
       <c r="D21" s="3">
         <v>7</v>
@@ -2999,30 +3087,32 @@
       <c r="F21" s="5">
         <v>6</v>
       </c>
-      <c r="G21" s="9">
-        <f>F21/202</f>
-        <v>2.9702970297029702E-2</v>
+      <c r="G21" s="6">
+        <f t="shared" si="2"/>
+        <v>3.5714285714285712E-2</v>
       </c>
       <c r="H21" s="5">
         <v>2</v>
       </c>
-      <c r="I21" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="J21" s="10">
-        <f>C21/(G21+I21)</f>
-        <v>0.3816193181818181</v>
+      <c r="I21" s="6">
+        <f t="shared" si="3"/>
+        <v>2.564102564102564E-2</v>
+      </c>
+      <c r="J21" s="7">
+        <f t="shared" si="0"/>
+        <v>0.52345571413007952</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B22" s="3">
         <v>17</v>
       </c>
-      <c r="C22" s="4">
-        <v>2.06E-2</v>
+      <c r="C22" s="7">
+        <f t="shared" si="1"/>
+        <v>2.4817518248175182E-2</v>
       </c>
       <c r="D22" s="3">
         <v>5</v>
@@ -3033,30 +3123,32 @@
       <c r="F22" s="5">
         <v>3</v>
       </c>
-      <c r="G22" s="9">
-        <f>F22/202</f>
-        <v>1.4851485148514851E-2</v>
+      <c r="G22" s="6">
+        <f t="shared" si="2"/>
+        <v>1.7857142857142856E-2</v>
       </c>
       <c r="H22" s="5">
         <v>2</v>
       </c>
-      <c r="I22" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="J22" s="10">
-        <f>C22/(G22+I22)</f>
-        <v>0.37555956678700364</v>
+      <c r="I22" s="6">
+        <f t="shared" si="3"/>
+        <v>2.564102564102564E-2</v>
+      </c>
+      <c r="J22" s="7">
+        <f t="shared" si="0"/>
+        <v>0.57054168267383787</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="8" t="s">
         <v>31</v>
       </c>
       <c r="B23" s="3">
         <v>20</v>
       </c>
-      <c r="C23" s="4">
-        <v>2.4199999999999999E-2</v>
+      <c r="C23" s="7">
+        <f t="shared" si="1"/>
+        <v>2.9197080291970802E-2</v>
       </c>
       <c r="D23" s="3">
         <v>6</v>
@@ -3067,30 +3159,32 @@
       <c r="F23" s="5">
         <v>5</v>
       </c>
-      <c r="G23" s="9">
-        <f>F23/202</f>
-        <v>2.4752475247524754E-2</v>
+      <c r="G23" s="6">
+        <f t="shared" si="2"/>
+        <v>2.976190476190476E-2</v>
       </c>
       <c r="H23" s="5">
         <v>2</v>
       </c>
-      <c r="I23" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="J23" s="10">
-        <f>C23/(G23+I23)</f>
-        <v>0.37373088685015288</v>
+      <c r="I23" s="6">
+        <f t="shared" si="3"/>
+        <v>2.564102564102564E-2</v>
+      </c>
+      <c r="J23" s="7">
+        <f t="shared" si="0"/>
+        <v>0.52699523436086149</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="8" t="s">
         <v>32</v>
       </c>
       <c r="B24" s="3">
         <v>20</v>
       </c>
-      <c r="C24" s="4">
-        <v>2.4199999999999999E-2</v>
+      <c r="C24" s="7">
+        <f t="shared" si="1"/>
+        <v>2.9197080291970802E-2</v>
       </c>
       <c r="D24" s="3">
         <v>6</v>
@@ -3101,30 +3195,32 @@
       <c r="F24" s="5">
         <v>5</v>
       </c>
-      <c r="G24" s="9">
-        <f>F24/202</f>
-        <v>2.4752475247524754E-2</v>
+      <c r="G24" s="6">
+        <f t="shared" si="2"/>
+        <v>2.976190476190476E-2</v>
       </c>
       <c r="H24" s="5">
         <v>2</v>
       </c>
-      <c r="I24" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="J24" s="10">
-        <f>C24/(G24+I24)</f>
-        <v>0.37373088685015288</v>
+      <c r="I24" s="6">
+        <f t="shared" si="3"/>
+        <v>2.564102564102564E-2</v>
+      </c>
+      <c r="J24" s="7">
+        <f t="shared" si="0"/>
+        <v>0.52699523436086149</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="8" t="s">
         <v>27</v>
       </c>
       <c r="B25" s="3">
         <v>16</v>
       </c>
-      <c r="C25" s="4">
-        <v>1.9400000000000001E-2</v>
+      <c r="C25" s="7">
+        <f t="shared" si="1"/>
+        <v>2.3357664233576641E-2</v>
       </c>
       <c r="D25" s="3">
         <v>6</v>
@@ -3135,30 +3231,32 @@
       <c r="F25" s="5">
         <v>3</v>
       </c>
-      <c r="G25" s="9">
-        <f>F25/202</f>
-        <v>1.4851485148514851E-2</v>
+      <c r="G25" s="6">
+        <f t="shared" si="2"/>
+        <v>1.7857142857142856E-2</v>
       </c>
       <c r="H25" s="5">
         <v>2</v>
       </c>
-      <c r="I25" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="J25" s="10">
-        <f>C25/(G25+I25)</f>
-        <v>0.35368231046931409</v>
+      <c r="I25" s="6">
+        <f t="shared" si="3"/>
+        <v>2.564102564102564E-2</v>
+      </c>
+      <c r="J25" s="7">
+        <f t="shared" si="0"/>
+        <v>0.53698040722243567</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="8" t="s">
         <v>35</v>
       </c>
       <c r="B26" s="3">
         <v>21</v>
       </c>
-      <c r="C26" s="4">
-        <v>2.5399999999999999E-2</v>
+      <c r="C26" s="7">
+        <f t="shared" si="1"/>
+        <v>3.0656934306569343E-2</v>
       </c>
       <c r="D26" s="3">
         <v>7</v>
@@ -3169,200 +3267,212 @@
       <c r="F26" s="5">
         <v>7</v>
       </c>
-      <c r="G26" s="9">
-        <f>F26/202</f>
-        <v>3.4653465346534656E-2</v>
+      <c r="G26" s="6">
+        <f t="shared" si="2"/>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="H26" s="5">
         <v>2</v>
       </c>
-      <c r="I26" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="J26" s="10">
-        <f>C26/(G26+I26)</f>
-        <v>0.34023872679045086</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
-        <v>36</v>
+      <c r="I26" s="6">
+        <f t="shared" si="3"/>
+        <v>2.564102564102564E-2</v>
+      </c>
+      <c r="J26" s="7">
+        <f t="shared" si="0"/>
+        <v>0.45547445255474456</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="B27" s="3">
-        <v>18</v>
-      </c>
-      <c r="C27" s="4">
-        <v>2.18E-2</v>
+        <v>20</v>
+      </c>
+      <c r="C27" s="7">
+        <f t="shared" si="1"/>
+        <v>2.9197080291970802E-2</v>
       </c>
       <c r="D27" s="3">
         <v>6</v>
       </c>
       <c r="E27" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F27" s="5">
-        <v>5</v>
-      </c>
-      <c r="G27" s="9">
-        <f>F27/202</f>
-        <v>2.4752475247524754E-2</v>
+        <v>7</v>
+      </c>
+      <c r="G27" s="6">
+        <f t="shared" si="2"/>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="H27" s="5">
         <v>2</v>
       </c>
-      <c r="I27" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="J27" s="10">
-        <f>C27/(G27+I27)</f>
-        <v>0.33666666666666667</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
-        <v>37</v>
+      <c r="I27" s="6">
+        <f t="shared" si="3"/>
+        <v>2.564102564102564E-2</v>
+      </c>
+      <c r="J27" s="7">
+        <f t="shared" si="0"/>
+        <v>0.43378519290928053</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="B28" s="3">
-        <v>20</v>
-      </c>
-      <c r="C28" s="4">
-        <v>2.4199999999999999E-2</v>
+        <v>14</v>
+      </c>
+      <c r="C28" s="7">
+        <f t="shared" si="1"/>
+        <v>2.0437956204379562E-2</v>
       </c>
       <c r="D28" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E28" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F28" s="5">
-        <v>7</v>
-      </c>
-      <c r="G28" s="9">
-        <f>F28/202</f>
-        <v>3.4653465346534656E-2</v>
+        <v>3</v>
+      </c>
+      <c r="G28" s="6">
+        <f t="shared" si="2"/>
+        <v>1.7857142857142856E-2</v>
       </c>
       <c r="H28" s="5">
         <v>2</v>
       </c>
-      <c r="I28" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="J28" s="10">
-        <f>C28/(G28+I28)</f>
-        <v>0.32416445623342172</v>
+      <c r="I28" s="6">
+        <f t="shared" si="3"/>
+        <v>2.564102564102564E-2</v>
+      </c>
+      <c r="J28" s="7">
+        <f t="shared" si="0"/>
+        <v>0.46985785631963123</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
-        <v>38</v>
+      <c r="A29" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="B29" s="3">
+        <v>15</v>
+      </c>
+      <c r="C29" s="7">
+        <f t="shared" si="1"/>
+        <v>2.1897810218978103E-2</v>
+      </c>
+      <c r="D29" s="3">
+        <v>5</v>
+      </c>
+      <c r="E29" s="3">
+        <v>5</v>
+      </c>
+      <c r="F29" s="5">
+        <v>4</v>
+      </c>
+      <c r="G29" s="6">
+        <f t="shared" si="2"/>
+        <v>2.3809523809523808E-2</v>
+      </c>
+      <c r="H29" s="5">
+        <v>2</v>
+      </c>
+      <c r="I29" s="6">
+        <f t="shared" si="3"/>
+        <v>2.564102564102564E-2</v>
+      </c>
+      <c r="J29" s="7">
+        <f t="shared" si="0"/>
+        <v>0.44282238442822386</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="3">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <f t="shared" si="1"/>
+        <v>1.8978102189781021E-2</v>
+      </c>
+      <c r="D30" s="3">
+        <v>4</v>
+      </c>
+      <c r="E30" s="3">
+        <v>5</v>
+      </c>
+      <c r="F30" s="5">
+        <v>3</v>
+      </c>
+      <c r="G30" s="6">
+        <f t="shared" si="2"/>
+        <v>1.7857142857142856E-2</v>
+      </c>
+      <c r="H30" s="5">
+        <v>2</v>
+      </c>
+      <c r="I30" s="6">
+        <f t="shared" si="3"/>
+        <v>2.564102564102564E-2</v>
+      </c>
+      <c r="J30" s="7">
+        <f t="shared" si="0"/>
+        <v>0.43629658086822898</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="3">
         <v>14</v>
       </c>
-      <c r="C29" s="4">
-        <v>1.6899999999999998E-2</v>
-      </c>
-      <c r="D29" s="3">
-        <v>5</v>
-      </c>
-      <c r="E29" s="3">
-        <v>4</v>
-      </c>
-      <c r="F29" s="5">
-        <v>3</v>
-      </c>
-      <c r="G29" s="9">
-        <f>F29/202</f>
-        <v>1.4851485148514851E-2</v>
-      </c>
-      <c r="H29" s="5">
-        <v>2</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="J29" s="10">
-        <f>C29/(G29+I29)</f>
-        <v>0.30810469314079419</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" s="3">
-        <v>15</v>
-      </c>
-      <c r="C30" s="4">
-        <v>1.8200000000000001E-2</v>
-      </c>
-      <c r="D30" s="3">
-        <v>5</v>
-      </c>
-      <c r="E30" s="3">
-        <v>5</v>
-      </c>
-      <c r="F30" s="5">
-        <v>4</v>
-      </c>
-      <c r="G30" s="9">
-        <f>F30/202</f>
-        <v>1.9801980198019802E-2</v>
-      </c>
-      <c r="H30" s="5">
-        <v>2</v>
-      </c>
-      <c r="I30" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="J30" s="10">
-        <f>C30/(G30+I30)</f>
-        <v>0.30433774834437088</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31" s="3">
-        <v>13</v>
-      </c>
-      <c r="C31" s="4">
-        <v>1.5699999999999999E-2</v>
+      <c r="C31" s="7">
+        <f t="shared" si="1"/>
+        <v>2.0437956204379562E-2</v>
       </c>
       <c r="D31" s="3">
         <v>4</v>
       </c>
       <c r="E31" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F31" s="5">
-        <v>3</v>
-      </c>
-      <c r="G31" s="9">
-        <f>F31/202</f>
-        <v>1.4851485148514851E-2</v>
+        <v>4</v>
+      </c>
+      <c r="G31" s="6">
+        <f t="shared" si="2"/>
+        <v>2.3809523809523808E-2</v>
       </c>
       <c r="H31" s="5">
         <v>2</v>
       </c>
-      <c r="I31" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="J31" s="10">
-        <f>C31/(G31+I31)</f>
-        <v>0.28622743682310464</v>
+      <c r="I31" s="6">
+        <f t="shared" si="3"/>
+        <v>2.564102564102564E-2</v>
+      </c>
+      <c r="J31" s="7">
+        <f t="shared" si="0"/>
+        <v>0.41330089213300891</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
-        <v>41</v>
+      <c r="A32" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="B32" s="3">
         <v>14</v>
       </c>
-      <c r="C32" s="4">
-        <v>1.6899999999999998E-2</v>
+      <c r="C32" s="7">
+        <f t="shared" si="1"/>
+        <v>2.0437956204379562E-2</v>
       </c>
       <c r="D32" s="3">
         <v>4</v>
@@ -3373,359 +3483,380 @@
       <c r="F32" s="5">
         <v>4</v>
       </c>
-      <c r="G32" s="9">
-        <f>F32/202</f>
-        <v>1.9801980198019802E-2</v>
+      <c r="G32" s="6">
+        <f t="shared" si="2"/>
+        <v>2.3809523809523808E-2</v>
       </c>
       <c r="H32" s="5">
         <v>2</v>
       </c>
-      <c r="I32" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="J32" s="10">
-        <f>C32/(G32+I32)</f>
-        <v>0.28259933774834434</v>
+      <c r="I32" s="6">
+        <f t="shared" si="3"/>
+        <v>2.564102564102564E-2</v>
+      </c>
+      <c r="J32" s="7">
+        <f t="shared" si="0"/>
+        <v>0.41330089213300891</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
-        <v>42</v>
+      <c r="A33" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="B33" s="3">
+        <v>15</v>
+      </c>
+      <c r="C33" s="7">
+        <f t="shared" si="1"/>
+        <v>2.1897810218978103E-2</v>
+      </c>
+      <c r="D33" s="3">
+        <v>5</v>
+      </c>
+      <c r="E33" s="3">
+        <v>5</v>
+      </c>
+      <c r="F33" s="5">
+        <v>5</v>
+      </c>
+      <c r="G33" s="6">
+        <f t="shared" si="2"/>
+        <v>2.976190476190476E-2</v>
+      </c>
+      <c r="H33" s="5">
+        <v>2</v>
+      </c>
+      <c r="I33" s="6">
+        <f t="shared" si="3"/>
+        <v>2.564102564102564E-2</v>
+      </c>
+      <c r="J33" s="7">
+        <f t="shared" si="0"/>
+        <v>0.39524642577064611</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="3">
+        <v>12</v>
+      </c>
+      <c r="C34" s="7">
+        <f t="shared" si="1"/>
+        <v>1.7518248175182483E-2</v>
+      </c>
+      <c r="D34" s="3">
+        <v>4</v>
+      </c>
+      <c r="E34" s="3">
+        <v>4</v>
+      </c>
+      <c r="F34" s="5">
+        <v>3</v>
+      </c>
+      <c r="G34" s="6">
+        <f t="shared" si="2"/>
+        <v>1.7857142857142856E-2</v>
+      </c>
+      <c r="H34" s="5">
+        <v>2</v>
+      </c>
+      <c r="I34" s="6">
+        <f t="shared" si="3"/>
+        <v>2.564102564102564E-2</v>
+      </c>
+      <c r="J34" s="7">
+        <f t="shared" si="0"/>
+        <v>0.40273530541682678</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" s="3">
         <v>14</v>
       </c>
-      <c r="C33" s="4">
-        <v>1.6899999999999998E-2</v>
-      </c>
-      <c r="D33" s="3">
-        <v>4</v>
-      </c>
-      <c r="E33" s="3">
-        <v>6</v>
-      </c>
-      <c r="F33" s="5">
-        <v>4</v>
-      </c>
-      <c r="G33" s="9">
-        <f>F33/202</f>
-        <v>1.9801980198019802E-2</v>
-      </c>
-      <c r="H33" s="5">
-        <v>2</v>
-      </c>
-      <c r="I33" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="J33" s="10">
-        <f>C33/(G33+I33)</f>
-        <v>0.28259933774834434</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B34" s="3">
-        <v>15</v>
-      </c>
-      <c r="C34" s="4">
-        <v>1.8200000000000001E-2</v>
-      </c>
-      <c r="D34" s="3">
-        <v>5</v>
-      </c>
-      <c r="E34" s="3">
-        <v>5</v>
-      </c>
-      <c r="F34" s="5">
-        <v>5</v>
-      </c>
-      <c r="G34" s="9">
-        <f>F34/202</f>
-        <v>2.4752475247524754E-2</v>
-      </c>
-      <c r="H34" s="5">
-        <v>2</v>
-      </c>
-      <c r="I34" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="J34" s="10">
-        <f>C34/(G34+I34)</f>
-        <v>0.2810703363914373</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B35" s="3">
-        <v>12</v>
-      </c>
-      <c r="C35" s="4">
-        <v>1.4500000000000001E-2</v>
+      <c r="C35" s="7">
+        <f t="shared" si="1"/>
+        <v>2.0437956204379562E-2</v>
       </c>
       <c r="D35" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E35" s="3">
         <v>4</v>
       </c>
       <c r="F35" s="5">
+        <v>5</v>
+      </c>
+      <c r="G35" s="6">
+        <f t="shared" si="2"/>
+        <v>2.976190476190476E-2</v>
+      </c>
+      <c r="H35" s="5">
+        <v>2</v>
+      </c>
+      <c r="I35" s="6">
+        <f t="shared" si="3"/>
+        <v>2.564102564102564E-2</v>
+      </c>
+      <c r="J35" s="7">
+        <f t="shared" si="0"/>
+        <v>0.36889666405260302</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" s="3">
+        <v>13</v>
+      </c>
+      <c r="C36" s="7">
+        <f t="shared" si="1"/>
+        <v>1.8978102189781021E-2</v>
+      </c>
+      <c r="D36" s="3">
+        <v>5</v>
+      </c>
+      <c r="E36" s="3">
         <v>3</v>
       </c>
-      <c r="G35" s="9">
-        <f>F35/202</f>
-        <v>1.4851485148514851E-2</v>
-      </c>
-      <c r="H35" s="5">
-        <v>2</v>
-      </c>
-      <c r="I35" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="J35" s="10">
-        <f>C35/(G35+I35)</f>
-        <v>0.2643501805054152</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B36" s="3">
-        <v>14</v>
-      </c>
-      <c r="C36" s="4">
-        <v>1.6899999999999998E-2</v>
-      </c>
-      <c r="D36" s="3">
-        <v>5</v>
-      </c>
-      <c r="E36" s="3">
+      <c r="F36" s="5">
+        <v>6</v>
+      </c>
+      <c r="G36" s="6">
+        <f t="shared" si="2"/>
+        <v>3.5714285714285712E-2</v>
+      </c>
+      <c r="H36" s="5">
+        <v>2</v>
+      </c>
+      <c r="I36" s="6">
+        <f t="shared" si="3"/>
+        <v>2.564102564102564E-2</v>
+      </c>
+      <c r="J36" s="7">
+        <f t="shared" si="0"/>
+        <v>0.30931474016777427</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" s="3">
+        <v>12</v>
+      </c>
+      <c r="C37" s="7">
+        <f t="shared" si="1"/>
+        <v>1.7518248175182483E-2</v>
+      </c>
+      <c r="D37" s="3">
+        <v>2</v>
+      </c>
+      <c r="E37" s="3">
+        <v>8</v>
+      </c>
+      <c r="F37" s="5">
+        <v>5</v>
+      </c>
+      <c r="G37" s="6">
+        <f t="shared" si="2"/>
+        <v>2.976190476190476E-2</v>
+      </c>
+      <c r="H37" s="5">
+        <v>2</v>
+      </c>
+      <c r="I37" s="6">
+        <f t="shared" si="3"/>
+        <v>2.564102564102564E-2</v>
+      </c>
+      <c r="J37" s="7">
+        <f t="shared" si="0"/>
+        <v>0.31619714061651688</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" s="3">
+        <v>8</v>
+      </c>
+      <c r="C38" s="7">
+        <f t="shared" si="1"/>
+        <v>1.167883211678832E-2</v>
+      </c>
+      <c r="D38" s="3">
+        <v>3</v>
+      </c>
+      <c r="E38" s="3">
+        <v>2</v>
+      </c>
+      <c r="F38" s="5">
         <v>4</v>
       </c>
-      <c r="F36" s="5">
-        <v>5</v>
-      </c>
-      <c r="G36" s="9">
-        <f>F36/202</f>
-        <v>2.4752475247524754E-2</v>
-      </c>
-      <c r="H36" s="5">
-        <v>2</v>
-      </c>
-      <c r="I36" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="J36" s="10">
-        <f>C36/(G36+I36)</f>
-        <v>0.26099388379204891</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B37" s="3">
-        <v>13</v>
-      </c>
-      <c r="C37" s="4">
-        <v>1.5699999999999999E-2</v>
-      </c>
-      <c r="D37" s="3">
-        <v>5</v>
-      </c>
-      <c r="E37" s="3">
+      <c r="G38" s="6">
+        <f t="shared" si="2"/>
+        <v>2.3809523809523808E-2</v>
+      </c>
+      <c r="H38" s="5">
+        <v>2</v>
+      </c>
+      <c r="I38" s="6">
+        <f t="shared" si="3"/>
+        <v>2.564102564102564E-2</v>
+      </c>
+      <c r="J38" s="7">
+        <f t="shared" si="0"/>
+        <v>0.23617193836171937</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" s="3">
+        <v>6</v>
+      </c>
+      <c r="C39" s="7">
+        <f t="shared" si="1"/>
+        <v>8.7591240875912416E-3</v>
+      </c>
+      <c r="D39" s="3">
+        <v>2</v>
+      </c>
+      <c r="E39" s="3">
+        <v>2</v>
+      </c>
+      <c r="F39" s="5">
         <v>3</v>
       </c>
-      <c r="F37" s="5">
-        <v>6</v>
-      </c>
-      <c r="G37" s="9">
-        <f>F37/202</f>
-        <v>2.9702970297029702E-2</v>
-      </c>
-      <c r="H37" s="5">
-        <v>2</v>
-      </c>
-      <c r="I37" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="J37" s="10">
-        <f>C37/(G37+I37)</f>
-        <v>0.22524147727272723</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B38" s="3">
-        <v>12</v>
-      </c>
-      <c r="C38" s="4">
-        <v>1.4500000000000001E-2</v>
-      </c>
-      <c r="D38" s="3">
-        <v>2</v>
-      </c>
-      <c r="E38" s="3">
-        <v>8</v>
-      </c>
-      <c r="F38" s="5">
-        <v>5</v>
-      </c>
-      <c r="G38" s="9">
-        <f>F38/202</f>
-        <v>2.4752475247524754E-2</v>
-      </c>
-      <c r="H38" s="5">
-        <v>2</v>
-      </c>
-      <c r="I38" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="J38" s="10">
-        <f>C38/(G38+I38)</f>
-        <v>0.2239296636085627</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B39" s="3">
-        <v>8</v>
-      </c>
-      <c r="C39" s="4">
-        <v>9.7000000000000003E-3</v>
-      </c>
-      <c r="D39" s="3">
+      <c r="G39" s="6">
+        <f t="shared" si="2"/>
+        <v>1.7857142857142856E-2</v>
+      </c>
+      <c r="H39" s="5">
+        <v>2</v>
+      </c>
+      <c r="I39" s="6">
+        <f t="shared" si="3"/>
+        <v>2.564102564102564E-2</v>
+      </c>
+      <c r="J39" s="7">
+        <f t="shared" si="0"/>
+        <v>0.20136765270841339</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" s="3">
+        <v>6</v>
+      </c>
+      <c r="C40" s="7">
+        <f t="shared" si="1"/>
+        <v>8.7591240875912416E-3</v>
+      </c>
+      <c r="D40" s="3">
+        <v>2</v>
+      </c>
+      <c r="E40" s="3">
+        <v>2</v>
+      </c>
+      <c r="F40" s="5">
+        <v>4</v>
+      </c>
+      <c r="G40" s="6">
+        <f t="shared" si="2"/>
+        <v>2.3809523809523808E-2</v>
+      </c>
+      <c r="H40" s="5">
+        <v>2</v>
+      </c>
+      <c r="I40" s="6">
+        <f t="shared" si="3"/>
+        <v>2.564102564102564E-2</v>
+      </c>
+      <c r="J40" s="7">
+        <f t="shared" si="0"/>
+        <v>0.17712895377128957</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" s="3">
+        <v>6</v>
+      </c>
+      <c r="C41" s="7">
+        <f t="shared" si="1"/>
+        <v>8.7591240875912416E-3</v>
+      </c>
+      <c r="D41" s="3">
+        <v>2</v>
+      </c>
+      <c r="E41" s="3">
+        <v>2</v>
+      </c>
+      <c r="F41" s="5">
+        <v>5</v>
+      </c>
+      <c r="G41" s="6">
+        <f t="shared" si="2"/>
+        <v>2.976190476190476E-2</v>
+      </c>
+      <c r="H41" s="5">
+        <v>2</v>
+      </c>
+      <c r="I41" s="6">
+        <f t="shared" si="3"/>
+        <v>2.564102564102564E-2</v>
+      </c>
+      <c r="J41" s="7">
+        <f t="shared" si="0"/>
+        <v>0.15809857030825844</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42" s="3">
         <v>3</v>
       </c>
-      <c r="E39" s="3">
-        <v>2</v>
-      </c>
-      <c r="F39" s="5">
-        <v>4</v>
-      </c>
-      <c r="G39" s="9">
-        <f>F39/202</f>
-        <v>1.9801980198019802E-2</v>
-      </c>
-      <c r="H39" s="5">
-        <v>2</v>
-      </c>
-      <c r="I39" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="J39" s="10">
-        <f>C39/(G39+I39)</f>
-        <v>0.16220198675496689</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B40" s="3">
-        <v>6</v>
-      </c>
-      <c r="C40" s="4">
-        <v>7.3000000000000001E-3</v>
-      </c>
-      <c r="D40" s="3">
-        <v>2</v>
-      </c>
-      <c r="E40" s="3">
-        <v>2</v>
-      </c>
-      <c r="F40" s="5">
-        <v>3</v>
-      </c>
-      <c r="G40" s="9">
-        <f>F40/202</f>
-        <v>1.4851485148514851E-2</v>
-      </c>
-      <c r="H40" s="5">
-        <v>2</v>
-      </c>
-      <c r="I40" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="J40" s="10">
-        <f>C40/(G40+I40)</f>
-        <v>0.13308664259927797</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B41" s="3">
-        <v>6</v>
-      </c>
-      <c r="C41" s="4">
-        <v>7.3000000000000001E-3</v>
-      </c>
-      <c r="D41" s="3">
-        <v>2</v>
-      </c>
-      <c r="E41" s="3">
-        <v>2</v>
-      </c>
-      <c r="F41" s="5">
-        <v>4</v>
-      </c>
-      <c r="G41" s="9">
-        <f>F41/202</f>
-        <v>1.9801980198019802E-2</v>
-      </c>
-      <c r="H41" s="5">
-        <v>2</v>
-      </c>
-      <c r="I41" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="J41" s="10">
-        <f>C41/(G41+I41)</f>
-        <v>0.12206953642384107</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B42" s="3">
-        <v>6</v>
-      </c>
-      <c r="C42" s="4">
-        <v>7.3000000000000001E-3</v>
+      <c r="C42" s="7">
+        <f t="shared" si="1"/>
+        <v>4.3795620437956208E-3</v>
       </c>
       <c r="D42" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E42" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F42" s="5">
-        <v>5</v>
-      </c>
-      <c r="G42" s="9">
-        <f>F42/202</f>
-        <v>2.4752475247524754E-2</v>
+        <v>2</v>
+      </c>
+      <c r="G42" s="6">
+        <f t="shared" si="2"/>
+        <v>1.1904761904761904E-2</v>
       </c>
       <c r="H42" s="5">
         <v>2</v>
       </c>
-      <c r="I42" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="J42" s="10">
-        <f>C42/(G42+I42)</f>
-        <v>0.11273700305810397</v>
+      <c r="I42" s="6">
+        <f t="shared" si="3"/>
+        <v>2.564102564102564E-2</v>
+      </c>
+      <c r="J42" s="7">
+        <f t="shared" si="0"/>
+        <v>0.11664589638597117</v>
       </c>
     </row>
   </sheetData>
@@ -3742,5 +3873,6 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>